--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il21-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il21-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Il21</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,10 +543,10 @@
         <v>0.206475</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6049060451053807</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6049060451053806</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.365583</v>
+        <v>35.32109533333334</v>
       </c>
       <c r="N2">
-        <v>73.096749</v>
+        <v>105.963286</v>
       </c>
       <c r="O2">
-        <v>0.3097154004536172</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="P2">
-        <v>0.3097154004536173</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="Q2">
-        <v>1.676961249975</v>
+        <v>2.430974386316667</v>
       </c>
       <c r="R2">
-        <v>15.092651249775</v>
+        <v>21.87876947685</v>
       </c>
       <c r="S2">
-        <v>0.3097154004536172</v>
+        <v>0.2494176203586572</v>
       </c>
       <c r="T2">
-        <v>0.3097154004536173</v>
+        <v>0.2494176203586572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>0.206475</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6049060451053807</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6049060451053806</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>3.684475</v>
       </c>
       <c r="O3">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="P3">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="Q3">
         <v>0.08452799729166666</v>
@@ -635,10 +635,10 @@
         <v>0.760751975625</v>
       </c>
       <c r="S3">
-        <v>0.0156113461364245</v>
+        <v>0.00867256029386408</v>
       </c>
       <c r="T3">
-        <v>0.0156113461364245</v>
+        <v>0.008672560293864078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>0.206475</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6049060451053807</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6049060451053806</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.595688</v>
+        <v>2.583168333333334</v>
       </c>
       <c r="N4">
-        <v>13.787064</v>
+        <v>7.749505</v>
       </c>
       <c r="O4">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="P4">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="Q4">
-        <v>0.3162982266</v>
+        <v>0.1777865605416667</v>
       </c>
       <c r="R4">
-        <v>2.8466840394</v>
+        <v>1.600079044875</v>
       </c>
       <c r="S4">
-        <v>0.05841663420406905</v>
+        <v>0.01824087539204396</v>
       </c>
       <c r="T4">
-        <v>0.05841663420406905</v>
+        <v>0.01824087539204395</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,10 +729,10 @@
         <v>0.206475</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6049060451053807</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6049060451053806</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.48145033333333</v>
+        <v>46.53090866666667</v>
       </c>
       <c r="N5">
-        <v>145.444351</v>
+        <v>139.592726</v>
       </c>
       <c r="O5">
-        <v>0.6162566192058891</v>
+        <v>0.5431835104302428</v>
       </c>
       <c r="P5">
-        <v>0.6162566192058893</v>
+        <v>0.5431835104302427</v>
       </c>
       <c r="Q5">
-        <v>3.336735819191666</v>
+        <v>3.202489788983333</v>
       </c>
       <c r="R5">
-        <v>30.030622372725</v>
+        <v>28.82240810085</v>
       </c>
       <c r="S5">
-        <v>0.6162566192058891</v>
+        <v>0.3285749890608155</v>
       </c>
       <c r="T5">
-        <v>0.6162566192058893</v>
+        <v>0.3285749890608154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.044953</v>
+      </c>
+      <c r="H6">
+        <v>0.134859</v>
+      </c>
+      <c r="I6">
+        <v>0.3950939548946194</v>
+      </c>
+      <c r="J6">
+        <v>0.3950939548946193</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>35.32109533333334</v>
+      </c>
+      <c r="N6">
+        <v>105.963286</v>
+      </c>
+      <c r="O6">
+        <v>0.4123245624288747</v>
+      </c>
+      <c r="P6">
+        <v>0.4123245624288747</v>
+      </c>
+      <c r="Q6">
+        <v>1.587789198519334</v>
+      </c>
+      <c r="R6">
+        <v>14.290102786674</v>
+      </c>
+      <c r="S6">
+        <v>0.1629069420702175</v>
+      </c>
+      <c r="T6">
+        <v>0.1629069420702175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.044953</v>
+      </c>
+      <c r="H7">
+        <v>0.134859</v>
+      </c>
+      <c r="I7">
+        <v>0.3950939548946194</v>
+      </c>
+      <c r="J7">
+        <v>0.3950939548946193</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.228158333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.684475</v>
+      </c>
+      <c r="O7">
+        <v>0.01433703690686912</v>
+      </c>
+      <c r="P7">
+        <v>0.01433703690686912</v>
+      </c>
+      <c r="Q7">
+        <v>0.05520940155833333</v>
+      </c>
+      <c r="R7">
+        <v>0.496884614025</v>
+      </c>
+      <c r="S7">
+        <v>0.005664476613005042</v>
+      </c>
+      <c r="T7">
+        <v>0.005664476613005041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.044953</v>
+      </c>
+      <c r="H8">
+        <v>0.134859</v>
+      </c>
+      <c r="I8">
+        <v>0.3950939548946194</v>
+      </c>
+      <c r="J8">
+        <v>0.3950939548946193</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.583168333333334</v>
+      </c>
+      <c r="N8">
+        <v>7.749505</v>
+      </c>
+      <c r="O8">
+        <v>0.03015489023401347</v>
+      </c>
+      <c r="P8">
+        <v>0.03015489023401347</v>
+      </c>
+      <c r="Q8">
+        <v>0.1161211660883333</v>
+      </c>
+      <c r="R8">
+        <v>1.045090494795</v>
+      </c>
+      <c r="S8">
+        <v>0.01191401484196952</v>
+      </c>
+      <c r="T8">
+        <v>0.01191401484196952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.044953</v>
+      </c>
+      <c r="H9">
+        <v>0.134859</v>
+      </c>
+      <c r="I9">
+        <v>0.3950939548946194</v>
+      </c>
+      <c r="J9">
+        <v>0.3950939548946193</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>46.53090866666667</v>
+      </c>
+      <c r="N9">
+        <v>139.592726</v>
+      </c>
+      <c r="O9">
+        <v>0.5431835104302428</v>
+      </c>
+      <c r="P9">
+        <v>0.5431835104302427</v>
+      </c>
+      <c r="Q9">
+        <v>2.091703937292667</v>
+      </c>
+      <c r="R9">
+        <v>18.825335435634</v>
+      </c>
+      <c r="S9">
+        <v>0.2146085213694274</v>
+      </c>
+      <c r="T9">
+        <v>0.2146085213694273</v>
       </c>
     </row>
   </sheetData>
